--- a/06-03-2023/data/output/xlsx/Causality for Category/8.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/8.xlsx
@@ -49,27 +49,24 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
@@ -115,33 +112,33 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
@@ -217,21 +214,21 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
@@ -265,7 +262,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -307,33 +304,33 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__5,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
@@ -355,18 +352,18 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/8.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="144">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,27 +52,33 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
@@ -118,42 +124,51 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -220,21 +235,27 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
@@ -313,24 +334,15 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__5,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
@@ -358,10 +370,10 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
@@ -556,10 +568,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$9</c:f>
+              <c:f>AddsSubs!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -572,26 +584,32 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$9</c:f>
+              <c:f>AddsSubs!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01838610827374872</c:v>
+                  <c:v>0.005107252298263534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01937046004842615</c:v>
+                  <c:v>0.004842615012106538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01294498381877023</c:v>
+                  <c:v>0.009708737864077669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.005050505050505051</c:v>
+                  <c:v>0.0101010101010101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009523809523809525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +666,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 8</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -712,31 +730,19 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0053475935828877</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.007042253521126761</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -792,7 +798,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 8</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -885,16 +891,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.01805416248746239</c:v>
+                  <c:v>0.005015045135406218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01816347124117054</c:v>
+                  <c:v>0.005045408678102927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0111317254174397</c:v>
+                  <c:v>0.00927643784786642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01453488372093023</c:v>
+                  <c:v>0.005813953488372093</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.004901960784313725</c:v>
@@ -954,7 +960,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 8</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1018,10 +1024,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$9</c:f>
+              <c:f>Decimals!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1034,26 +1040,56 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$9</c:f>
+              <c:f>Decimals!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.02090032154340836</c:v>
+                  <c:v>0.00482315112540193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01829268292682927</c:v>
+                  <c:v>0.006097560975609756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01917808219178082</c:v>
+                  <c:v>0.005479452054794521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02766798418972332</c:v>
+                  <c:v>0.003952569169960474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005988023952095809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.007936507936507936</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02439024390243903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1146,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 8</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1174,48 +1210,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$10</c:f>
+              <c:f>Unknowns!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$10</c:f>
+              <c:f>Unknowns!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.01803607214428858</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02196193265007321</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01052631578947368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01923076923076923</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04347826086956522</c:v>
+                  <c:v>0.00501002004008016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,7 +1284,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 8</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1336,30 +1348,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$7</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$7</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.01507537688442211</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01910828025477707</c:v>
+                  <c:v>0.01005025125628141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1422,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 8</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1982,16 +1988,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01838610827374872</v>
+        <v>0.005107252298263534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.02307238331870214</v>
+        <v>0.009525863506005259</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2005,16 +2011,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01937046004842615</v>
+        <v>0.004842615012106538</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.01486715099308127</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2028,14 +2032,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01294498381877023</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.01010085571479106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2049,19 +2055,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.005050505050505051</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.009487419611098837</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -2070,19 +2078,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.01455327309463419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -2094,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2115,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2136,16 +2146,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2157,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2178,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2199,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2220,16 +2230,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2241,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2262,16 +2272,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2283,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2304,16 +2314,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2325,16 +2335,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2346,16 +2356,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2367,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2385,21 +2395,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02090032154340836</v>
+        <v>0.00482315112540193</v>
       </c>
       <c r="E22" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.009324396558424645</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2408,21 +2416,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01829268292682927</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1">
-        <v>-0.02451733874230944</v>
+        <v>0.006617434929823155</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2431,21 +2439,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01917808219178082</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="E24" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1">
-        <v>-0.01371889591626668</v>
+        <v>0.004837035111788028</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2454,16 +2462,14 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02766798418972332</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-0.004732431118811057</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2477,19 +2483,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E26" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.006003672473915581</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2498,19 +2506,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E27" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.007673334198669776</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2519,19 +2529,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.01104371720739016</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2540,19 +2552,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="E29" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.01437988827633922</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2561,19 +2575,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E30" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.02323291453363392</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2585,16 +2601,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2606,16 +2622,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2627,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2648,16 +2664,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2669,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2690,16 +2706,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2711,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2732,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2753,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2774,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2795,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2816,16 +2832,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2837,16 +2853,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2858,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2879,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -2900,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -2921,16 +2937,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2942,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2963,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -2984,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3005,16 +3021,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3023,21 +3039,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01805416248746239</v>
+        <v>0.005015045135406218</v>
       </c>
       <c r="E52" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G52" s="1">
-        <v>0.02236570435290875</v>
+        <v>0.009446711025537718</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3046,21 +3062,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01816347124117054</v>
+        <v>0.005045408678102927</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G53" s="1">
-        <v>0.02242893696854926</v>
+        <v>0.009460532966652216</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3069,19 +3085,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0111317254174397</v>
+        <v>0.00927643784786642</v>
       </c>
       <c r="E54" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.01061332955127516</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3090,19 +3108,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.01453488372093023</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.003176687205033381</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3114,16 +3134,16 @@
         <v>0.004901960784313725</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3135,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3156,16 +3176,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3177,16 +3197,16 @@
         <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3198,16 +3218,16 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3219,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3240,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3261,16 +3281,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3282,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3303,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3321,19 +3341,19 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0053475935828877</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3342,19 +3362,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.007042253521126761</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3366,16 +3386,16 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3387,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3408,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3429,16 +3449,16 @@
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3450,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3471,16 +3491,16 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3492,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3513,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3534,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3555,16 +3575,16 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3576,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3597,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3615,19 +3635,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="E80" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3636,21 +3656,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.02196193265007321</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.01433901213859313</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3659,19 +3677,19 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3680,21 +3698,19 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="1">
-        <v>-0.003985958412439892</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3703,21 +3719,19 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" s="1">
-        <v>0.01117908815726969</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3729,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3750,16 +3764,16 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3771,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3792,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3813,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3834,16 +3848,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -3855,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3876,16 +3890,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -3894,19 +3908,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.01507537688442211</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E93" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.01011170907407621</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -3915,21 +3931,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.01910828025477707</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-0.01819148857519146</v>
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -3941,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -3962,16 +3976,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -3983,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4004,16 +4018,16 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4025,16 +4039,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4046,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4067,16 +4081,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4088,16 +4102,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4109,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4130,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4151,16 +4165,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4172,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4193,11 +4207,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +4221,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4218,7 +4232,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4241,25 +4255,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4273,13 +4287,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01838610827374872</v>
+        <v>0.005107252298263534</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0003500361294601455</v>
+        <v>9.723225818337403E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4316,13 +4330,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01937046004842615</v>
+        <v>0.004842615012106538</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001334387904137573</v>
+        <v>-0.0001674050279736224</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4359,13 +4373,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01294498381877023</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.005091088325518351</v>
+        <v>0.004698717823997509</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4402,13 +4416,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.005050505050505051</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.01298556709378353</v>
+        <v>0.005090990060929942</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4431,6 +4445,49 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.004513789483729365</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4442,7 +4499,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4453,7 +4510,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4476,111 +4533,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="3">
-        <v>187</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0053475935828877</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.01268847856140088</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="3">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.01099381862316182</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4602,7 +4573,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4625,30 +4596,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4657,13 +4628,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01805416248746239</v>
+        <v>0.005015045135406218</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F4" s="1">
-        <v>1.809034317381067E-05</v>
+        <v>5.025095326058326E-06</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4691,7 +4662,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4700,13 +4671,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01816347124117054</v>
+        <v>0.005045408678102927</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0001273990968819576</v>
+        <v>3.538863802276648E-05</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4734,7 +4705,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -4743,13 +4714,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.0111317254174397</v>
+        <v>0.00927643784786642</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.006904346726848875</v>
+        <v>0.00426641780778626</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4777,7 +4748,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -4786,13 +4757,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.01453488372093023</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.003501188423358345</v>
+        <v>0.0008039334482919328</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4820,7 +4791,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -4832,10 +4803,10 @@
         <v>0.004901960784313725</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.01313411135997485</v>
+        <v>-0.0001080592557664347</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4869,7 +4840,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4880,7 +4851,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4903,30 +4874,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4935,13 +4906,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.02090032154340836</v>
+        <v>0.00482315112540193</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F4" s="1">
-        <v>0.002864249399119782</v>
+        <v>-0.0001868689146782305</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4969,7 +4940,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4978,13 +4949,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01829268292682927</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="E5" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0002566107825406894</v>
+        <v>0.001087540935529596</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5012,7 +4983,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5021,13 +4992,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01917808219178082</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="E6" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F6" s="1">
-        <v>0.001142010047492245</v>
+        <v>0.0004694320147143605</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5055,7 +5026,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5064,13 +5035,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02766798418972332</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E7" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F7" s="1">
-        <v>0.009631912045434742</v>
+        <v>-0.001057450870119686</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5093,6 +5064,221 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.005988023952095809</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0009780039120156486</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.007936507936507936</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.002926487896427776</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01176470588235294</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.006754685842272781</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.01037459534453523</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.00501002004008016</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.01938022386235887</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
         <v>0</v>
       </c>
     </row>
@@ -5104,7 +5290,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5115,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5138,30 +5324,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -5170,10 +5356,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -5199,178 +5385,6 @@
       </c>
       <c r="L4" s="1">
         <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="3">
-        <v>683</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.02196193265007321</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.003925860505784629</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="3">
-        <v>95</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.01052631578947368</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-0.007509756354814894</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="3">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.001194697086480654</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="3">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.02544218872527664</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5382,7 +5396,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5393,7 +5407,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5416,30 +5430,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5448,13 +5462,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.01507537688442211</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="E4" s="3">
-        <v>0.01803607214428858</v>
+        <v>0.00501002004008016</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002960695259866468</v>
+        <v>0.005040231216201247</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5477,49 +5491,6 @@
       </c>
       <c r="L4" s="1">
         <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="3">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.01910828025477707</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.01803607214428858</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.001072208110488491</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
         <v>0</v>
       </c>
     </row>
